--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,22 +493,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02e+03</t>
+          <t>9.92e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.82e+02</t>
+          <t>9.89e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.528</t>
+          <t>-1.43</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.18e+02</t>
+          <t>7.42e-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-43.6</t>
+          <t>99.9</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.34e+02</t>
+          <t>1.64e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-26.9</t>
+          <t>99.7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.51e+02</t>
+          <t>6.67e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-50.3</t>
+          <t>-33.4</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.55e-01</t>
+          <t>5.95e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.9</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.32e-01</t>
+          <t>6.07e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>-21.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.99e-01</t>
+          <t>4.52e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>9.63</t>
         </is>
       </c>
     </row>
@@ -629,37 +629,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>5.04e-05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01e-04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-0.876</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1.00e-04</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.01e-04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-1.19</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>-0.482</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.02e-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.0176</t>
+          <t>-1.92</t>
         </is>
       </c>
     </row>
@@ -676,27 +676,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.90e-01</t>
+          <t>9.48e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.49e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.49e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0605</t>
+          <t>-0.027</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-0.00999</t>
+          <t>-0.0052</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.92e+02</t>
+          <t>9.84e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.89e+02</t>
+          <t>9.97e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.311</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.01e+03</t>
+          <t>9.97e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-1.43</t>
+          <t>0.311</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.42e-01</t>
+          <t>3.00e+01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27e+02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-45.4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6.93e-01</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>99.9</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.64e+00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>99.7</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>6.67e+02</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-33.4</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.95e-01</t>
+          <t>6.42e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-19.0</t>
+          <t>-28.4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.07e-01</t>
+          <t>4.00e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-21.4</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.52e-01</t>
+          <t>6.08e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>-21.7</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.04e-05</t>
+          <t>4.89e-05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.876</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -649,17 +649,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.482</t>
+          <t>-0.129</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.02e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-0.83</t>
         </is>
       </c>
     </row>
@@ -671,42 +671,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.50e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.48e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.50e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.000224</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.50e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.027</t>
+          <t>1.11e-14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.50e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-0.0052</t>
+          <t>0.000239</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.84e+02</t>
+          <t>9.85e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.97e+02</t>
+          <t>9.95e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.311</t>
+          <t>0.503</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.97e+02</t>
+          <t>9.86e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.311</t>
+          <t>1.39</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.00e+01</t>
+          <t>6.87e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>-37.4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.27e+02</t>
+          <t>7.33e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-45.4</t>
+          <t>-46.6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.93e-01</t>
+          <t>8.21e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>-64.2</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.42e-01</t>
+          <t>4.17e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-28.4</t>
+          <t>16.6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.00e-01</t>
+          <t>3.50e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.08e-01</t>
+          <t>3.36e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-21.7</t>
+          <t>32.8</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.89e-05</t>
+          <t>4.96e-05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -639,27 +639,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>9.94e-05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.556</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>1.00e-04</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-0.129</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.01e-04</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.332</t>
         </is>
       </c>
     </row>
@@ -671,42 +671,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.80e-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.81e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.80e-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.000224</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.80e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>-0.0146</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.80e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.000239</t>
+          <t>0.0182</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,22 +493,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.85e+02</t>
+          <t>9.82e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.95e+02</t>
+          <t>1.02e+03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.503</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.87e+02</t>
+          <t>5.35e-04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-37.4</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.33e+02</t>
+          <t>8.01e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-46.6</t>
+          <t>-60.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.21e+02</t>
+          <t>2.57e-01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-64.2</t>
+          <t>99.9</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.17e-01</t>
+          <t>6.13e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16.6</t>
+          <t>-22.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.50e-01</t>
+          <t>2.95e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.36e-01</t>
+          <t>6.26e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>-25.2</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.96e-05</t>
+          <t>4.94e-05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.94e-05</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.556</t>
+          <t>-0.434</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.332</t>
+          <t>-0.302</t>
         </is>
       </c>
     </row>
@@ -671,42 +671,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.80e-01</t>
+          <t>8.80e-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.81e-01</t>
+          <t>8.82e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.80e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>-0.102</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.80e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.0146</t>
+          <t>-0.081</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9.80e-01</t>
+          <t>8.79e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.107</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,12 +493,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.82e+02</t>
+          <t>1.02e+03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -508,17 +508,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.86e+02</t>
+          <t>9.76e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.35e-04</t>
+          <t>8.79e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-75.9</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.01e+02</t>
+          <t>5.19e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-60.3</t>
+          <t>-3.7</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.57e-01</t>
+          <t>6.01e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>99.9</t>
+          <t>-20.2</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.13e-01</t>
+          <t>2.00e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-22.5</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.95e-01</t>
+          <t>4.73e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.26e-01</t>
+          <t>4.73e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-25.2</t>
+          <t>5.32</t>
         </is>
       </c>
     </row>
@@ -629,37 +629,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.94e-05</t>
+          <t>5.08e-05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.01e-04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-1.2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.01e-04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>1.00e-04</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-0.434</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.302</t>
+          <t>-0.272</t>
         </is>
       </c>
     </row>
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>8.84e-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80e-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>8.82e-01</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-0.214</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>8.81e-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-0.102</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.81e-01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.081</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>8.79e-01</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>-0.0962</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02e+03</t>
+          <t>9.87e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.02e+03</t>
+          <t>1.00e+03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-0.293</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.76e+02</t>
+          <t>9.92e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>0.811</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.79e+02</t>
+          <t>7.74e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-75.9</t>
+          <t>-54.8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.19e+02</t>
+          <t>2.06e-01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.01e+02</t>
+          <t>1.17e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-20.2</t>
+          <t>99.8</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.00e-01</t>
+          <t>3.78e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>24.4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.73e-01</t>
+          <t>6.20e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>-24.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.73e-01</t>
+          <t>6.09e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>-21.7</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.08e-05</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-1.1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -649,17 +649,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-0.799</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.272</t>
+          <t>-0.75</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.84e-01</t>
+          <t>8.76e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -686,27 +686,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.82e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.214</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.81e-01</t>
+          <t>8.80e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-0.0962</t>
+          <t>0.0534</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.87e+02</t>
+          <t>9.94e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.573</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>9.80e+02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>1.00e+03</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-0.293</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>9.92e+02</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.811</t>
+          <t>-0.437</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.74e+02</t>
+          <t>2.75e-05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-54.8</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.06e-01</t>
+          <t>7.74e-03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.17e+00</t>
+          <t>1.42e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>99.8</t>
+          <t>99.7</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.78e-01</t>
+          <t>5.88e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>-17.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.20e-01</t>
+          <t>6.39e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-24.1</t>
+          <t>-27.7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.09e-01</t>
+          <t>6.39e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-21.7</t>
+          <t>-27.9</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
+          <t>4.99e-05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -639,27 +639,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-0.817</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>1.02e-04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-1.73</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>1.01e-04</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-0.799</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.01e-04</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.509</t>
         </is>
       </c>
     </row>
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.76e-01</t>
+          <t>8.79e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.80e-01</t>
+          <t>8.79e-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.0991</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.81e-01</t>
+          <t>8.78e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.174</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.80e-01</t>
+          <t>8.82e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0534</t>
+          <t>-0.253</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,22 +493,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.94e+02</t>
+          <t>1.01e+03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.573</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.80e+02</t>
+          <t>9.85e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.437</t>
+          <t>-0.349</t>
         </is>
       </c>
     </row>
@@ -535,12 +535,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00e+02</t>
+          <t>5.00e-02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.75e-05</t>
+          <t>2.86e-16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,22 +550,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.74e-03</t>
+          <t>8.36e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-67.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.42e+00</t>
+          <t>5.07e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>99.7</t>
+          <t>-1.49</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.88e-01</t>
+          <t>5.70e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-17.5</t>
+          <t>-13.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.39e-01</t>
+          <t>3.59e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-27.7</t>
+          <t>28.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.39e-01</t>
+          <t>5.17e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-27.9</t>
+          <t>-3.39</t>
         </is>
       </c>
     </row>
@@ -629,37 +629,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.99e-05</t>
+          <t>4.96e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.817</t>
+          <t>-1000000.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.02e-04</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>-1000000.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.509</t>
+          <t>-1010000.0</t>
         </is>
       </c>
     </row>
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>8.86e-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80e-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-0.0355</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.80e-01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-0.00993</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>8.79e-01</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.79e-01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.0991</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.78e-01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.174</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>8.82e-01</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-0.253</t>
+          <t>0.064</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -498,27 +498,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>-0.547</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.85e+02</t>
+          <t>9.91e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.862</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.00e+03</t>
+          <t>1.01e+03</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.349</t>
+          <t>-0.688</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.86e-16</t>
+          <t>3.54e-05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,22 +550,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.36e+02</t>
+          <t>6.47e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-67.3</t>
+          <t>-29.4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.07e+02</t>
+          <t>1.10e-02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-1.49</t>
+          <t>100.0</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.70e-01</t>
+          <t>5.80e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-13.9</t>
+          <t>-15.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.59e-01</t>
+          <t>4.09e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28.1</t>
+          <t>18.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.17e-01</t>
+          <t>5.83e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-3.39</t>
+          <t>-16.6</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.96e-01</t>
+          <t>4.97e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1000000.0</t>
+          <t>-1010000.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1000000.0</t>
+          <t>-1010000.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.86e-01</t>
+          <t>8.78e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.0355</t>
+          <t>0.026</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.80e-01</t>
+          <t>8.79e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.00993</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.0802</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01e+03</t>
+          <t>9.96e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.547</t>
+          <t>0.405</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.91e+02</t>
+          <t>9.96e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.862</t>
+          <t>0.447</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.01e+03</t>
+          <t>9.86e+02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.688</t>
+          <t>1.43</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.54e-05</t>
+          <t>2.09e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>99.6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50e-10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.47e+02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-29.4</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.10e-02</t>
+          <t>5.08e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.80e-01</t>
+          <t>6.40e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-15.9</t>
+          <t>-27.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.09e-01</t>
+          <t>5.86e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18.3</t>
+          <t>-17.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.83e-01</t>
+          <t>6.21e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-16.6</t>
+          <t>-24.3</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.97e-01</t>
+          <t>4.96e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.01e+00</t>
+          <t>9.95e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1010000.0</t>
+          <t>-995000.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.78e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>8.81e-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-0.111</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>8.80e-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.026</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>8.79e-01</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>8.79e-01</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0802</t>
+          <t>0.0785</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.96e+02</t>
+          <t>9.99e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.102</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.96e+02</t>
+          <t>9.85e+02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.447</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.86e+02</t>
+          <t>1.01e+03</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>-0.936</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.09e+00</t>
+          <t>7.62e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>-52.5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.50e-10</t>
+          <t>2.39e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>99.5</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5.86e-02</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>100.0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5.08e+00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>99.0</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.40e-01</t>
+          <t>3.13e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-27.9</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.86e-01</t>
+          <t>6.16e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-17.2</t>
+          <t>-23.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.21e-01</t>
+          <t>5.92e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-24.3</t>
+          <t>-18.4</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.96e-01</t>
+          <t>5.00e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.95e-01</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-995000.0</t>
+          <t>-1010000.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>8.71e-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.78e-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.229</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.79e-01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.152</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>8.81e-01</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.81e-01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-0.111</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.80e-01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0543</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>8.79e-01</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0785</t>
+          <t>-0.126</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -483,42 +483,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.00e+03</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.00e+03</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.99e+02</t>
+          <t>5.97e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>0.475</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.85e+02</t>
+          <t>5.95e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.811</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.01e+03</t>
+          <t>6.06e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.936</t>
+          <t>-1.06</t>
         </is>
       </c>
     </row>
@@ -530,42 +530,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.00e+02</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00e-02</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.62e+02</t>
+          <t>1.16e-06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-52.5</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.39e+00</t>
+          <t>2.38e-04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>99.5</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.86e-02</t>
+          <t>5.07e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-1.36</t>
         </is>
       </c>
     </row>
@@ -577,42 +577,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>4.00e-01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>5.00e-01</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5.00e-01</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.13e-01</t>
+          <t>7.15e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>-78.7</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.16e-01</t>
+          <t>6.74e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-23.2</t>
+          <t>-68.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.92e-01</t>
+          <t>3.41e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-18.4</t>
+          <t>14.8</t>
         </is>
       </c>
     </row>
@@ -629,37 +629,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>5.04e-05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.01e+00</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1010000.0</t>
+          <t>-0.626</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.01e+00</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-1010000.0</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.01e+00</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-1010000.0</t>
+          <t>-0.625</t>
         </is>
       </c>
     </row>
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.71e-01</t>
+          <t>8.78e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.78e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.229</t>
+          <t>-0.133</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>8.80e-01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>8.79e-01</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.152</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>8.81e-01</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-0.126</t>
+          <t>0.0708</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.97e+00</t>
+          <t>5.93e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.95e+00</t>
+          <t>5.82e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.811</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.06e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-0.249</t>
         </is>
       </c>
     </row>
@@ -535,37 +535,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>1.02e+01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.16e-06</t>
+          <t>2.05e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>58.8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.30e-15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.38e-04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.07e+00</t>
+          <t>4.99e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-0.398</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.15e-01</t>
+          <t>5.56e-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-78.7</t>
+          <t>-38.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.74e-01</t>
+          <t>6.56e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-68.6</t>
+          <t>-63.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.41e-01</t>
+          <t>3.22e-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>19.6</t>
         </is>
       </c>
     </row>
@@ -629,37 +629,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.04e-05</t>
+          <t>4.91e-05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.00e-04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-0.458</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.90e-05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.989</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>1.01e-04</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-0.626</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.01e-04</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.625</t>
+          <t>-0.649</t>
         </is>
       </c>
     </row>
@@ -676,27 +676,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>8.77e-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80e-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-0.0497</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>8.78e-01</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.81e-01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-0.133</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.80e-01</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.193</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0708</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.93e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0895</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.82e+00</t>
+          <t>6.07e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.01e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.249</t>
+          <t>0.172</t>
         </is>
       </c>
     </row>
@@ -535,37 +535,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.02e+01</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.05e+00</t>
+          <t>5.52e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>-10.3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.30e-15</t>
+          <t>3.60e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.99e+00</t>
+          <t>3.58e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-0.398</t>
+          <t>28.4</t>
         </is>
       </c>
     </row>
@@ -577,42 +577,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.00e-01</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.00e-01</t>
+          <t>5.04e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.56e-01</t>
+          <t>9.96e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-38.9</t>
+          <t>-9.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.56e-01</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-63.9</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.22e-01</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>28.0</t>
         </is>
       </c>
     </row>
@@ -624,42 +624,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>4.00e-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.91e-05</t>
+          <t>4.00e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.25e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.458</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.90e-05</t>
+          <t>4.99e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.989</t>
+          <t>-24.7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>4.63e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.649</t>
+          <t>-15.7</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.77e-01</t>
+          <t>8.73e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -686,27 +686,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.0497</t>
+          <t>-0.0475</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.78e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>-0.0818</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.79e-01</t>
+          <t>8.80e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.0516</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.09e+00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>5.99e+00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.0895</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.07e+00</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>0.128</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>6.02e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.172</t>
+          <t>-0.409</t>
         </is>
       </c>
     </row>
@@ -550,22 +550,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.60e+00</t>
+          <t>5.38e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>-7.53</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.58e+00</t>
+          <t>4.35e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>12.9</t>
         </is>
       </c>
     </row>
@@ -582,27 +582,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.04e-05</t>
+          <t>4.95e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.96e-05</t>
+          <t>9.97e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-9.81</t>
+          <t>-9.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>-8.48</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.25e-01</t>
+          <t>2.19e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.99e-01</t>
+          <t>2.10e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-24.7</t>
+          <t>47.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.63e-01</t>
+          <t>5.09e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-15.7</t>
+          <t>-27.2</t>
         </is>
       </c>
     </row>
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.73e-01</t>
+          <t>8.87e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.80e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.0475</t>
+          <t>-0.127</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>8.79e-01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.137</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>8.81e-01</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.0818</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>8.80e-01</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>-0.0615</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.09e+00</t>
+          <t>6.16e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-2.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>5.84e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.128</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.02e+00</t>
+          <t>5.94e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.409</t>
+          <t>0.958</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.52e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.3</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.38e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-7.53</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.35e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>80.0</t>
         </is>
       </c>
     </row>
@@ -582,37 +582,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.95e-05</t>
+          <t>4.92e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.97e-05</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-9.97</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-8.48</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>80.0</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.19e-01</t>
+          <t>6.22e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>-55.6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.10e-01</t>
+          <t>7.11e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>-77.7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.09e-01</t>
+          <t>7.19e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-27.2</t>
+          <t>-79.7</t>
         </is>
       </c>
     </row>
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.87e-01</t>
+          <t>8.86e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>8.83e-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>8.81e-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-0.127</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.79e-01</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.81e-01</t>
+          <t>8.80e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-0.0615</t>
+          <t>-0.0523</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.16e+00</t>
+          <t>5.92e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.84e+00</t>
+          <t>6.05e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>-0.775</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.94e+00</t>
+          <t>6.10e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>-1.67</t>
         </is>
       </c>
     </row>
@@ -550,22 +550,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>5.74e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>-14.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>5.13e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>-2.52</t>
         </is>
       </c>
     </row>
@@ -582,37 +582,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.92e-05</t>
+          <t>4.94e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.01e-04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1.00e-04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.9</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>-15.1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.02e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>-4.19</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.22e-01</t>
+          <t>6.62e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-55.6</t>
+          <t>-65.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.11e-01</t>
+          <t>1.09e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-77.7</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.19e-01</t>
+          <t>4.28e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-79.7</t>
+          <t>-7.04</t>
         </is>
       </c>
     </row>
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.86e-01</t>
+          <t>8.83e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.83e-01</t>
+          <t>8.79e-01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.288</t>
+          <t>0.145</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.81e-01</t>
+          <t>8.80e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.0272</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.80e-01</t>
+          <t>8.78e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-0.0523</t>
+          <t>0.178</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R1 [Ω]</t>
+          <t>τ1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.92e+00</t>
+          <t>5.89e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.05e+00</t>
+          <t>5.89e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-0.775</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.10e+00</t>
+          <t>5.95e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>0.897</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R2 [Ω]</t>
+          <t>τ2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,39 +540,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.00e+00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-0.0837</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>1.00e+00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>80.0</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.74e+00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-14.8</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.13e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>80.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -582,44 +582,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.94e-05</t>
+          <t>4.99e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.00e-04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-0.326</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.99e-05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>1.01e-04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.8</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.00e-04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-15.1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1.02e-04</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>79.9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Q [Fs^(1-α)]</t>
+          <t>δ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.62e-01</t>
+          <t>4.09e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-65.5</t>
+          <t>-2.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.09e-01</t>
+          <t>6.35e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>-58.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.28e-01</t>
+          <t>6.73e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-7.04</t>
+          <t>-68.3</t>
         </is>
       </c>
     </row>
@@ -676,37 +676,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.83e-01</t>
+          <t>8.79e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>8.80e-01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>8.79e-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.145</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>8.80e-01</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.0272</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>8.78e-01</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.0143</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.89e+00</t>
+          <t>6.11e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.89e+00</t>
+          <t>5.93e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.95e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.897</t>
+          <t>-0.202</t>
         </is>
       </c>
     </row>
@@ -540,12 +540,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>4.80e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.0837</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>5.79e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>-15.8</t>
         </is>
       </c>
     </row>
@@ -582,27 +582,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.99e-05</t>
+          <t>4.90e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.01e-04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1.00e-04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-0.326</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.99e-05</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>79.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>-16.6</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.09e-01</t>
+          <t>3.51e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-2.17</t>
+          <t>12.3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.35e-01</t>
+          <t>6.59e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-58.8</t>
+          <t>-64.7</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6.73e-01</t>
+          <t>1.34e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-68.3</t>
+          <t>66.4</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.79e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -686,27 +686,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.0512</t>
+          <t>-0.0391</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.79e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.135</t>
+          <t>-0.0694</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.80e-01</t>
+          <t>8.81e-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>-0.137</t>
         </is>
       </c>
     </row>

--- a/python/two/gg.xlsx
+++ b/python/two/gg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Guess</t>
+          <t>Fitted 1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 1</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 2</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Error</t>
+          <t>SD</t>
         </is>
       </c>
     </row>
@@ -488,37 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>6.31e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.11e+00</t>
+          <t>0.131</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-1.88</t>
+          <t>5.97e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.93e+00</t>
+          <t>0.0881</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>5.88e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.01e+00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-0.202</t>
+          <t>0.0896</t>
         </is>
       </c>
     </row>
@@ -535,84 +525,74 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>5.73e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.80e+00</t>
+          <t>0.181</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>1.00e+00</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.79e+00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-15.8</t>
+          <t>198.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>τ2Q0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.90e-05</t>
+          <t>5.77e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>0.188</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>79.9</t>
+          <t>1.01e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-16.6</t>
+          <t>199.0</t>
         </is>
       </c>
     </row>
@@ -629,37 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.00e-01</t>
+          <t>1.31e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.51e-01</t>
+          <t>0.0691</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>6.46e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.59e-01</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-64.7</t>
+          <t>6.82e-01</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.34e-01</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>66.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -676,37 +651,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>8.80e-01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00117</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>8.81e-01</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.80e-01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-0.0391</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>0.00124</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>8.81e-01</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-0.0694</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.81e-01</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-0.137</t>
+          <t>0.00129</t>
         </is>
       </c>
     </row>
